--- a/TY1475_RX_HIGH_L.X/TY1475-HIGH_動作表.xlsx
+++ b/TY1475_RX_HIGH_L.X/TY1475-HIGH_動作表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>TY1475 高配測試表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +812,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -916,7 +920,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,8 +1136,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="3"/>
